--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chromosome1" sheetId="1" state="visible" r:id="rId1"/>
@@ -523,7 +523,7 @@
   </sheetPr>
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5025,10 +5025,13 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="12.57" customWidth="1" style="6" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
@@ -5213,15 +5216,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:BG70"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H69" activeCellId="0" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.79" customWidth="1" style="6" min="1" max="1"/>
+    <col width="17.98" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.45" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.67" customWidth="1" style="6" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
@@ -5270,6 +5275,46 @@
           <t>Exposure Data</t>
         </is>
       </c>
+      <c r="AZ1" s="8" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="BA1" s="8" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="BB1" s="8" t="inlineStr">
+        <is>
+          <t>beta.exposure</t>
+        </is>
+      </c>
+      <c r="BC1" s="8" t="inlineStr">
+        <is>
+          <t>t-stat.exposure</t>
+        </is>
+      </c>
+      <c r="BD1" s="8" t="inlineStr">
+        <is>
+          <t>p-value.exposure</t>
+        </is>
+      </c>
+      <c r="BE1" s="8" t="inlineStr">
+        <is>
+          <t>adj.p-value.exposure</t>
+        </is>
+      </c>
+      <c r="BF1" s="8" t="inlineStr">
+        <is>
+          <t>effect_allele.exposure</t>
+        </is>
+      </c>
+      <c r="BG1" s="8" t="inlineStr">
+        <is>
+          <t>other_allele.exposure</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="7">
       <c r="A2" s="8" t="inlineStr">
@@ -5313,7 +5358,7 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="7">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
@@ -5455,7 +5500,7 @@
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="7">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
@@ -5576,7 +5621,7 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="7">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
@@ -5658,7 +5703,7 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
@@ -5678,7 +5723,7 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="7">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
@@ -5719,17 +5764,17 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="7">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>ADAMTS7</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>-0.28</v>
+        <v>-0.35</v>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>finn b I9 CHD</t>
+          <t>CARDIoGRAM</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
@@ -5739,7 +5784,7 @@
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>rs12908510</t>
+          <t>rs2219939</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
@@ -5747,11 +5792,11 @@
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>78997972</t>
+          <t>79029723</t>
         </is>
       </c>
       <c r="H17" s="6" t="n">
-        <v>4.41205e-10</v>
+        <v>1.21001e-09</v>
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
@@ -5762,25 +5807,25 @@
     <row r="18" ht="15" customHeight="1" s="7">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>ADAMTS7</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>-0.35</v>
+        <v>-0.04</v>
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>CARDIoGRAM</t>
+          <t>GCST003116</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>vaf</t>
+          <t>sf</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>rs2219939</t>
+          <t>rs4468572</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
@@ -5788,11 +5833,11 @@
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>79029723</t>
+          <t>79124475</t>
         </is>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.21001e-09</v>
+        <v>4.44017e-16</v>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
@@ -5801,27 +5846,27 @@
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="7">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>ADAMTS7</t>
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>-0.32</v>
+        <v>-0.22</v>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>CARDIoGRAM</t>
+          <t>finn b I9 CHD</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>vaf</t>
+          <t>sf</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>rs11633519</t>
+          <t>rs7165139</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
@@ -5829,11 +5874,11 @@
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t>78999552</t>
+          <t>79146243</t>
         </is>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5.83996e-09</v>
+        <v>3.42397e-10</v>
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
@@ -5842,13 +5887,13 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="7">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>CTSH</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>-0.04</v>
+        <v>0.25</v>
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
@@ -5857,7 +5902,7 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>sf</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
@@ -5883,27 +5928,27 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="7">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>CTSH</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>-0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>finn b I9 CHD</t>
+          <t>GCST003116</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>sf</t>
+          <t>Liver</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>rs7165139</t>
+          <t>rs4468572</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
@@ -5911,11 +5956,11 @@
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>79146243</t>
+          <t>79124475</t>
         </is>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.42397e-10</v>
+        <v>4.44017e-16</v>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
@@ -5924,27 +5969,27 @@
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="7">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>CTSH</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>GCST003116</t>
+          <t>finn b I9 CHD</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>Liver</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>rs4468572</t>
+          <t>rs1994016</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
@@ -5952,11 +5997,11 @@
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>79124475</t>
+          <t>79080234</t>
         </is>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4.44017e-16</v>
+        <v>7.79992e-10</v>
       </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
@@ -5965,13 +6010,13 @@
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="7">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>CTSH</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
@@ -5980,7 +6025,7 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Liver</t>
+          <t>sklm</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
@@ -6004,41 +6049,25 @@
           <t>Starnet</t>
         </is>
       </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>CTSH and PSMA4 do not share any instruments and are independently causal</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="7">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>CTSH</t>
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>PSMA4</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>finn b I9 CHD</t>
-        </is>
+        <v>-0.24</v>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Liver</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>rs1994016</t>
-        </is>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>79080234</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>7.79992e-10</v>
+          <t>sklm</t>
+        </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
         <is>
@@ -6047,13 +6076,13 @@
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="7">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>CTSH</t>
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>SMAD3</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
@@ -6067,7 +6096,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>rs4468572</t>
+          <t>rs56062135</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
@@ -6075,36 +6104,53 @@
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>79124475</t>
+          <t>67455630</t>
         </is>
       </c>
       <c r="H25" s="6" t="n">
-        <v>4.44017e-16</v>
+        <v>4.52002e-09</v>
       </c>
       <c r="I25" s="6" t="inlineStr">
         <is>
           <t>Starnet</t>
         </is>
       </c>
-      <c r="J25" s="6" t="inlineStr">
-        <is>
-          <t>CTSH and PSMA4 do not share any instruments and are independently causal</t>
-        </is>
-      </c>
+      <c r="J25" s="6" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="7">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>PSMA4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>-0.24</v>
+        <v>-0.3</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
           <t>sklm</t>
         </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>rs12438645</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>79068203</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3.75405e-12</v>
       </c>
       <c r="I26" s="6" t="inlineStr">
         <is>
@@ -6115,11 +6161,11 @@
     <row r="27" ht="15" customHeight="1" s="7">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>SMAD3</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>-0.18</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
@@ -6128,12 +6174,12 @@
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>sklm</t>
+          <t>mam</t>
         </is>
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>rs56062135</t>
+          <t>rs4468572</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
@@ -6141,11 +6187,11 @@
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>67455630</t>
+          <t>79124475</t>
         </is>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.52002e-09</v>
+        <v>4.44017e-16</v>
       </c>
       <c r="I27" s="6" t="inlineStr">
         <is>
@@ -6154,39 +6200,18 @@
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="7">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>PSMA4</t>
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>ADAMTS7</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>finn b I9 CHD</t>
-        </is>
+        <v>0.13</v>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>sklm</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>rs12438645</t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>79068203</t>
-        </is>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>3.75405e-12</v>
+          <t>mam</t>
+        </is>
       </c>
       <c r="I28" s="6" t="inlineStr">
         <is>
@@ -6197,11 +6222,11 @@
     <row r="29" ht="15" customHeight="1" s="7">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MFGE8</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
@@ -6215,7 +6240,7 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>rs4468572</t>
+          <t>rs8042271</t>
         </is>
       </c>
       <c r="F29" s="6" t="n">
@@ -6223,11 +6248,11 @@
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>79124475</t>
+          <t>89574218</t>
         </is>
       </c>
       <c r="H29" s="6" t="n">
-        <v>4.44017e-16</v>
+        <v>3.68002e-08</v>
       </c>
       <c r="I29" s="6" t="inlineStr">
         <is>
@@ -6238,11 +6263,11 @@
     <row r="30" ht="15" customHeight="1" s="7">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>ADAMTS7</t>
+          <t>HAPLN3</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
@@ -6258,37 +6283,16 @@
     <row r="31" ht="15" customHeight="1" s="7">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>MFGE8</t>
+          <t>ABHD2</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>GCST003116</t>
-        </is>
+        <v>-0.04</v>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>rs8042271</t>
-        </is>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>89574218</t>
-        </is>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>3.68002e-08</v>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
@@ -6299,11 +6303,11 @@
     <row r="32" ht="15" customHeight="1" s="7">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>HAPLN3</t>
+          <t>RP11-326A19.4</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
@@ -6319,17 +6323,38 @@
     <row r="33" ht="15" customHeight="1" s="7">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>ABHD2</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>-0.04</v>
+        <v>-0.08</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>rs7176070</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>79033489</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>2.57217e-13</v>
+      </c>
       <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Starnet</t>
@@ -6337,13 +6362,13 @@
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="7">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>RP11-326A19.4</t>
+      <c r="A34" s="10" t="inlineStr">
+        <is>
+          <t>ADAMTS7</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>-0.05</v>
+        <v>0.19</v>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
@@ -6359,11 +6384,11 @@
     <row r="35" ht="15" customHeight="1" s="7">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>HAPLN3</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
@@ -6377,7 +6402,7 @@
       </c>
       <c r="E35" s="6" t="inlineStr">
         <is>
-          <t>rs7176070</t>
+          <t>rs7162326</t>
         </is>
       </c>
       <c r="F35" s="6" t="n">
@@ -6385,11 +6410,11 @@
       </c>
       <c r="G35" s="6" t="inlineStr">
         <is>
-          <t>79033489</t>
+          <t>89575200</t>
         </is>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2.57217e-13</v>
+        <v>2.28702e-08</v>
       </c>
       <c r="I35" s="6" t="inlineStr">
         <is>
@@ -6400,11 +6425,11 @@
     <row r="36" ht="15" customHeight="1" s="7">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>ADAMTS7</t>
+          <t>ABHD2</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>0.19</v>
+        <v>-0.04</v>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
@@ -6420,66 +6445,45 @@
     <row r="37" ht="15" customHeight="1" s="7">
       <c r="A37" s="8" t="inlineStr">
         <is>
+          <t>RP11-326A19.4</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>mam</t>
+        </is>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="7">
+      <c r="A38" s="10" t="inlineStr">
+        <is>
           <t>ADAMTS7</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>finn b I9 CHD</t>
-        </is>
-      </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="B38" s="6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>CARDIoGRAM</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>rs12908510</t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G37" s="6" t="inlineStr">
-        <is>
-          <t>78997972</t>
-        </is>
-      </c>
-      <c r="H37" s="6" t="n">
-        <v>4.41205e-10</v>
-      </c>
-      <c r="I37" s="6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="7">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>HAPLN3</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>finn b I9 CHD</t>
-        </is>
-      </c>
-      <c r="D38" s="6" t="inlineStr">
-        <is>
-          <t>mam</t>
-        </is>
-      </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>rs7162326</t>
+          <t>rs2219939</t>
         </is>
       </c>
       <c r="F38" s="6" t="n">
@@ -6487,11 +6491,11 @@
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>89575200</t>
+          <t>79029723</t>
         </is>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.28702e-08</v>
+        <v>1.21001e-09</v>
       </c>
       <c r="I38" s="6" t="inlineStr">
         <is>
@@ -6499,128 +6503,298 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="7">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>ABHD2</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
+    <row r="39" ht="15" customHeight="1" s="7"/>
+    <row r="40" ht="15" customHeight="1" s="7"/>
+    <row r="41" ht="15" customHeight="1" s="7"/>
+    <row r="42" ht="15" customHeight="1" s="7"/>
+    <row r="50" ht="13.5" customHeight="1" s="7"/>
+    <row r="51" ht="13.5" customHeight="1" s="7">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" s="7">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_sklm</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>GCST003116</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>rs4468572</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>79124475</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>4.44017e-16</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1" s="7">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_mam</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" s="7">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_Liver</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1" s="7">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>ADAMTS7_aor</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" s="7">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_sf</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>-0.04</v>
       </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>mam</t>
-        </is>
-      </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="7">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>RP11-326A19.4</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
+    </row>
+    <row r="57" ht="13.5" customHeight="1" s="7">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_aor</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" s="7">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_blood</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" s="7">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>PSMA4_sklm</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" s="7">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>ADAMTS7_vaf</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1" s="7">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_vaf</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1" s="7">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>ADAMTS7_mam</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1" s="7">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_mam</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>rs7176070</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>79033489</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>2.57217e-13</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" s="7">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>PSMA4_sklm</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" s="7">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>ADAMTS7_vaf</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1" s="7">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>ADAMTS7_aor</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" s="7">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_sf</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>mam</t>
-        </is>
-      </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="7">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>ADAMTS7</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>CARDIoGRAM</t>
-        </is>
-      </c>
-      <c r="D41" s="6" t="inlineStr">
-        <is>
-          <t>mam</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>rs2219939</t>
-        </is>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>79029723</t>
-        </is>
-      </c>
-      <c r="H41" s="6" t="n">
-        <v>1.21001e-09</v>
-      </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="7">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>ADAMTS7</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>CARDIoGRAM</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>mam</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>rs11633519</t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>78999552</t>
-        </is>
-      </c>
-      <c r="H42" s="6" t="n">
-        <v>5.83996e-09</v>
-      </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="68" ht="13.5" customHeight="1" s="7">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_aor</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1" s="7">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>CTSH_Liver</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1" s="7">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>ADAMTS7_mam</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1" s="7"/>
+    <row r="72" ht="13.5" customHeight="1" s="7"/>
+    <row r="73" ht="13.5" customHeight="1" s="7"/>
+    <row r="74" ht="13.5" customHeight="1" s="7"/>
+    <row r="75" ht="13.5" customHeight="1" s="7"/>
+    <row r="76" ht="13.5" customHeight="1" s="7"/>
+    <row r="77" ht="13.5" customHeight="1" s="7"/>
+    <row r="78" ht="13.5" customHeight="1" s="7"/>
+    <row r="79" ht="13.5" customHeight="1" s="7"/>
+    <row r="80" ht="13.5" customHeight="1" s="7"/>
+    <row r="81" ht="13.5" customHeight="1" s="7"/>
+    <row r="82" ht="13.5" customHeight="1" s="7"/>
+    <row r="83" ht="13.5" customHeight="1" s="7"/>
+    <row r="84" ht="13.5" customHeight="1" s="7"/>
+    <row r="85" ht="13.5" customHeight="1" s="7"/>
+    <row r="86" ht="13.5" customHeight="1" s="7"/>
+    <row r="87" ht="13.5" customHeight="1" s="7"/>
+    <row r="88" ht="13.5" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6637,10 +6811,10 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
@@ -6690,7 +6864,7 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="7">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>BCAR1</t>
         </is>
@@ -6731,7 +6905,7 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="7">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>CFDP1</t>
         </is>
@@ -6772,7 +6946,7 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="7">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>CFDP1</t>
         </is>
@@ -6813,7 +6987,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="7">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>CFDP1</t>
         </is>
@@ -6895,7 +7069,7 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>BCAR1</t>
         </is>
@@ -6934,11 +7108,11 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.79" customWidth="1" style="6" min="1" max="1"/>
   </cols>
@@ -7377,961 +7551,1411 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="12.45" customWidth="1" style="6" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>gene</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>chr</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>position</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>pvalue</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>Exposure Data</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>AP000320.7</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>GCST003116</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="6" t="n">
         <v>1.33015e-15</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="7">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>KCNE2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="7">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="7">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="6" t="n">
         <v>-0.08</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="7">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>AP000318.2</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>-0.1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="7">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="7">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>KCNE2</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>finn b I9 CHD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6" t="n">
         <v>1.41091e-16</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="7">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>AP000318.2</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="7">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>-0.08</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>AP000320.7</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="7">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>CARDIoGRAM</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>rs9982601</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="6" t="inlineStr">
         <is>
           <t>35599128</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="6" t="n">
         <v>4.21998e-10</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>AP000320.7</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="7">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>KCNE2</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="inlineStr">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="7">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>AP000318.2</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="7">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>0.06</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>aor</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="7">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.32</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>GCST003116</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>sf</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="6" t="n">
         <v>1.33015e-15</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="7">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.41</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>finn b I9 CHD</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>sf</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="6" t="n">
         <v>1.41091e-16</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="7">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.49</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>CARDIoGRAM</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>sf</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>rs9982601</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>35599128</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="6" t="n">
         <v>4.21998e-10</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="7">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="6" t="n">
         <v>-0.06</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>GCST003116</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="6" t="n">
         <v>1.33015e-15</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="7">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>0.06</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="12" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="7">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>-0.18</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="7">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>-0.08</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>finn b I9 CHD</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>rs28451064</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>35593827</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="6" t="n">
         <v>1.41091e-16</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="7">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="7">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="6" t="n">
         <v>-0.27</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="7">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>LINC00310</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="6" t="n">
         <v>-0.08</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>CARDIoGRAM</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>rs9982601</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="6" t="inlineStr">
         <is>
           <t>35599128</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="6" t="n">
         <v>4.21998e-10</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="7">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>MRPS6</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>-0.09</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="7">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>SLC5A3</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>-0.12</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>mam</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Starnet</t>
-        </is>
-      </c>
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>Starnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="F41" s="12" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="G41" s="12" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>AP000320.7_aor</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GCST003116</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>rs28451064</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>21</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>35593827</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.33015e-15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_mam</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>AP000318.2_aor</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_sf</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_mam</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>KCNE2_aor</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_mam</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_aor</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_aor</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_aor</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
+        <is>
+          <t>AP000318.2_aor</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>rs28451064</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>21</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>35593827</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1.41091e-16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>KCNE2_aor</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_sf</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_mam</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_aor</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_blood</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
+        <is>
+          <t>AP000320.7_aor</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_mam</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_mam</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_aor</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_aor</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_sf</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CARDIoGRAM</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>rs9982601</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>21</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>35599128</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4.21998e-10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_mam</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_mam</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>LINC00310_aor</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>KCNE2_aor</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>AP000320.7_aor</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
+        <is>
+          <t>MRPS6_aor</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_mam</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="inlineStr">
+        <is>
+          <t>AP000318.2_aor</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>SLC5A3_aor</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -8341,10 +8965,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="L104" activeCellId="0" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12496,6 +13120,204 @@
         <is>
           <t>Starnet</t>
         </is>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="7">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="D91" s="8" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="E91" s="8" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="G91" s="8" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="7">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>MAT2A_aor</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>GCST003116</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="inlineStr">
+        <is>
+          <t>rs7568458</t>
+        </is>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="6" t="inlineStr">
+        <is>
+          <t>85788175</t>
+        </is>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>3.62001e-10</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="7">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_blood</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="7">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>VAMP8_Liver</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="7">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
+          <t>VAMP5_sklm</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="7">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_Liver</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="7">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>USP39_sklm</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="7">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_sklm</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="7">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>MAT2A_blood</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="7">
+      <c r="A100" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_vaf</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="7">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>MAT2A_mam</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="7">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_sf</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8" customHeight="1" s="7">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>GGCX_aor</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="104" ht="13.8" customHeight="1" s="7">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>VAMP8_sklm</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="7">
+      <c r="A105" s="11" t="inlineStr">
+        <is>
+          <t>GGCX_mam</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -13197,7 +14019,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -13590,15 +14412,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="15.32" customWidth="1" style="6" min="1" max="1"/>
+    <col width="17.74" customWidth="1" style="6" min="1" max="1"/>
     <col width="9.369999999999999" customWidth="1" style="6" min="2" max="2"/>
     <col width="15.43" customWidth="1" style="6" min="5" max="5"/>
     <col width="10.47" customWidth="1" style="6" min="7" max="7"/>
@@ -15011,6 +15833,245 @@
         <is>
           <t>Starnet</t>
         </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="7">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="7">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>TBC1D7_mam</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>GCST003116</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>rs9349379</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>12903957</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>1.81009e-42</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="7">
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.4_mam</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="7">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.5_aor</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="7">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.4_aor</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="7">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>GFOD1_mam</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="7">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>PHACTR1_aor</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="7">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>PHACTR1_mam</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="7">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.5_mam</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="7">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.5_mam</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>rs9349379</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>12903957</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>1.59588e-32</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="7">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.5_aor</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="7">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.4_aor</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="7">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>RP1-257A7.4_mam</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="7">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>TBC1D7_mam</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="7">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>GFOD1_mam</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" s="7">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>PHACTR1_aor</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" s="7">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>PHACTR1_mam</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -15026,13 +16087,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" customWidth="1" style="6" min="1" max="1"/>
+    <col width="16.74" customWidth="1" style="6" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
@@ -15342,7 +16407,6 @@
           <t>mam</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
@@ -15351,6 +16415,135 @@
           <t>Starnet</t>
         </is>
       </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="G31" s="12" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>NOS3_Liver</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>GCST003116</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>rs3918226</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>150690176</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>1.69001e-09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>NOS3_vaf</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+      <c r="F33" s="6" t="inlineStr"/>
+      <c r="G33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>NOS3_Liver</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>finn b I9 CHD</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>rs3918226</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>150690176</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>2.99599e-08</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>NOS3_vaf</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr"/>
+      <c r="D35" s="6" t="inlineStr"/>
+      <c r="E35" s="6" t="inlineStr"/>
+      <c r="F35" s="6" t="inlineStr"/>
+      <c r="G35" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -15368,10 +16561,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="14.55" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
@@ -15641,10 +16838,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="22.38" customWidth="1" style="6" min="1" max="1"/>
+    <col width="11.46" customWidth="1" style="6" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
@@ -15735,7 +16936,7 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="7">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>LIPA</t>
         </is>
@@ -15825,7 +17026,6 @@
       <c r="B5" s="6" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="inlineStr">
         <is>
           <t>aor</t>
@@ -15842,7 +17042,7 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="7">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>NT5C2</t>
         </is>
@@ -15850,7 +17050,6 @@
       <c r="B6" s="6" t="n">
         <v>0.15</v>
       </c>
-      <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="inlineStr">
         <is>
           <t>aor</t>
@@ -15908,7 +17107,7 @@
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="7">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>LIPA</t>
         </is>
@@ -15990,7 +17189,7 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="7">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>AS3MT</t>
         </is>
@@ -15998,7 +17197,6 @@
       <c r="B10" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="inlineStr">
         <is>
           <t>vaf</t>
@@ -16064,7 +17262,6 @@
       <c r="B12" s="6" t="n">
         <v>-0.08</v>
       </c>
-      <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="inlineStr">
         <is>
           <t>sf</t>
@@ -16089,7 +17286,6 @@
       <c r="B13" s="6" t="n">
         <v>-0.09</v>
       </c>
-      <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="inlineStr">
         <is>
           <t>sf</t>
@@ -16106,7 +17302,7 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="7">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>CYP17A1-AS1</t>
         </is>
@@ -16114,7 +17310,6 @@
       <c r="B14" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="inlineStr">
         <is>
           <t>sf</t>
@@ -16131,7 +17326,7 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>LIPA</t>
         </is>
@@ -16213,7 +17408,7 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="7">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>TMEM180</t>
         </is>
@@ -16221,7 +17416,6 @@
       <c r="B17" s="6" t="n">
         <v>0.15</v>
       </c>
-      <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="inlineStr">
         <is>
           <t>blood</t>
@@ -16238,7 +17432,7 @@
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="7">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>LIPA</t>
         </is>
@@ -16320,7 +17514,7 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="7">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>C10orf32</t>
         </is>
@@ -16328,7 +17522,6 @@
       <c r="B20" s="6" t="n">
         <v>0.17</v>
       </c>
-      <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="inlineStr">
         <is>
           <t>Liver</t>
@@ -16345,7 +17538,7 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="7">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>LIPA</t>
         </is>
@@ -16550,7 +17743,7 @@
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="7">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>NT5C2</t>
         </is>
@@ -16558,7 +17751,6 @@
       <c r="B26" s="6" t="n">
         <v>-0.13</v>
       </c>
-      <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="inlineStr">
         <is>
           <t>mam</t>
@@ -16630,11 +17822,14 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.67" customWidth="1" style="6" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
